--- a/Skills- Tasks.xlsx
+++ b/Skills- Tasks.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fde3934849c07a23/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evant\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35DA35B2-6770-4430-84AA-58011ED61547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF47B96-98FA-429E-ACAF-DEB90D792C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3525" yWindow="1845" windowWidth="21600" windowHeight="11175" xr2:uid="{8F9F12FB-6CEB-4CA3-9EF2-76DF32531D3B}"/>
+    <workbookView xWindow="6360" yWindow="2025" windowWidth="21600" windowHeight="11385" xr2:uid="{8F9F12FB-6CEB-4CA3-9EF2-76DF32531D3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>John Ruzzano</t>
   </si>
@@ -98,6 +98,18 @@
   </si>
   <si>
     <t>Framework knowledge(React,Vue…)</t>
+  </si>
+  <si>
+    <t>HTML(4), CSS(1-2), JavaScript(3-4), PHP(1-2)</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>HTML or JavaScript</t>
   </si>
 </sst>
 </file>
@@ -157,15 +169,15 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -485,95 +497,103 @@
   <dimension ref="B1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.42578125" customWidth="1"/>
     <col min="5" max="5" width="42.7109375" customWidth="1"/>
     <col min="6" max="6" width="37.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2"/>
+      <c r="C1" s="6"/>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="6"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="5"/>
     </row>
     <row r="6" spans="2:6" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="6"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="5"/>
     </row>
     <row r="7" spans="2:6" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="6"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="5"/>
     </row>
     <row r="8" spans="2:6" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="6"/>
+      <c r="C8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="9" spans="2:6" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>19</v>
       </c>
     </row>
